--- a/WIN-time.xlsx
+++ b/WIN-time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scaactk/Desktop/算法库性能比较/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE8C98F-D335-E640-BD80-C2A90EF5EE67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22F0CE5-25F7-9A4C-9212-85A24BB8CCED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -700,10 +700,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -766,10 +766,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2453,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2728,10 +2728,10 @@
         <v>100</v>
       </c>
       <c r="C22" s="1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D22" s="1">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2753,10 +2753,10 @@
         <v>100</v>
       </c>
       <c r="C25" s="1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D25" s="1">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2781,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2867,10 +2867,10 @@
         <v>100</v>
       </c>
       <c r="C18" s="1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D18" s="1">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
